--- a/GoDexServicePrint/Tracking Sheet.xlsx
+++ b/GoDexServicePrint/Tracking Sheet.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WMS2\GoDexServicePrint\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>EN228346943TH</t>
   </si>
@@ -101,6 +106,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -148,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +403,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,96 +498,156 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Register</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Register</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Register</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMS</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="str">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="str">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="str">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
